--- a/src/Aryabhatta/ABRoomsData.xlsx
+++ b/src/Aryabhatta/ABRoomsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\optimised-rooms\src\Aryabhatta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C688C8D3-6CD3-4697-8812-DD670AC35372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B3202A-79EF-4652-960A-69307EBF3E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="107">
   <si>
     <t>Building</t>
   </si>
@@ -225,9 +225,6 @@
     <t>AB310</t>
   </si>
   <si>
-    <t>AB311</t>
-  </si>
-  <si>
     <t>Rashim Rana</t>
   </si>
   <si>
@@ -265,12 +262,6 @@
   </si>
   <si>
     <t>Anshika Agarwal</t>
-  </si>
-  <si>
-    <t>BCS056</t>
-  </si>
-  <si>
-    <t>VACS501</t>
   </si>
   <si>
     <t>Shalini Sharma</t>
@@ -384,7 +375,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -643,19 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -685,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -715,12 +693,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1125,7 @@
       <c r="F2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1226,7 +1202,7 @@
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1476,10 +1452,10 @@
         <v>10</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>11</v>
@@ -1553,7 +1529,7 @@
         <v>14</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y7" s="8" t="s">
         <v>12</v>
@@ -1562,7 +1538,7 @@
         <v>61</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB7" s="7" t="s">
         <v>13</v>
@@ -1571,7 +1547,7 @@
         <v>14</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1591,16 +1567,16 @@
         <v>47</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>9</v>
@@ -1609,7 +1585,7 @@
         <v>47</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>44</v>
@@ -1630,10 +1606,10 @@
         <v>45</v>
       </c>
       <c r="W8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="X8" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="Y8" s="19" t="s">
         <v>12</v>
@@ -1663,7 +1639,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>43</v>
@@ -1672,7 +1648,7 @@
         <v>55</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>9</v>
@@ -1690,16 +1666,16 @@
         <v>14</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>11</v>
@@ -1736,10 +1712,10 @@
         <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>43</v>
@@ -1748,7 +1724,7 @@
         <v>52</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>9</v>
@@ -1778,10 +1754,10 @@
         <v>45</v>
       </c>
       <c r="W10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>12</v>
@@ -1790,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB10" s="4" t="s">
         <v>13</v>
@@ -1819,7 +1795,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -1828,16 +1804,16 @@
         <v>52</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>44</v>
@@ -1899,7 +1875,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>43</v>
@@ -1908,34 +1884,34 @@
         <v>14</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>44</v>
       </c>
       <c r="N12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="S12" s="7" t="s">
         <v>11</v>
@@ -1991,19 +1967,19 @@
         <v>44</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>11</v>
@@ -2014,10 +1990,10 @@
         <v>45</v>
       </c>
       <c r="W13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X13" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="Y13" s="5" t="s">
         <v>12</v>
@@ -2026,7 +2002,7 @@
         <v>52</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB13" s="4" t="s">
         <v>13</v>
@@ -2035,7 +2011,7 @@
         <v>52</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2055,7 +2031,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>43</v>
@@ -2064,7 +2040,7 @@
         <v>55</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>9</v>
@@ -2073,7 +2049,7 @@
         <v>57</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>44</v>
@@ -2107,7 +2083,7 @@
         <v>14</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2254,87 +2230,87 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="K17" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7" t="s">
+      <c r="N17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7" t="s">
+      <c r="Q17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="S17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7" t="s">
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="W17" s="7" t="s">
+      <c r="W17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="X17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y17" s="8" t="s">
+      <c r="X17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="7" t="s">
+      <c r="Z17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AA17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB17" s="7" t="s">
+      <c r="AA17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AC17" s="7" t="s">
-        <v>52</v>
+      <c r="AC17" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
@@ -2348,61 +2324,73 @@
         <v>42</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
+      <c r="W18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="Y18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
+      <c r="Z18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="AB18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="11"/>
+      <c r="AC18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>3</v>
       </c>
@@ -2416,73 +2404,73 @@
         <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="7" t="s">
+      <c r="S19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="7" t="s">
+      <c r="V19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Y19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AB19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>3</v>
       </c>
@@ -2495,60 +2483,68 @@
       <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="4" t="s">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="7" t="s">
+      <c r="S20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
+      <c r="W20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="Y20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
+      <c r="Z20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="AB20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="11"/>
+      <c r="AC20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="21" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
@@ -2557,453 +2553,441 @@
       <c r="B21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="15"/>
+    </row>
+    <row r="22" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA21" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AB22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AC21" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD21" s="15" t="s">
-        <v>79</v>
+      <c r="AC22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+    <row r="23" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="24" t="s">
+      <c r="B23" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="P22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="S22" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="W22" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="X22" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y22" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z22" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA22" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB22" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC22" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD22" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="4" t="s">
+      <c r="O23" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4" t="s">
+      <c r="Q23" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4" t="s">
+      <c r="V23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y23" s="5" t="s">
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB23" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD23" s="11" t="s">
-        <v>46</v>
+        <v>87</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>66</v>
+      <c r="B24" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4" t="s">
+      <c r="O24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="4" t="s">
+      <c r="V24" s="16" t="s">
         <v>45</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y24" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AC24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD24" s="11" t="s">
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="11"/>
+    </row>
+    <row r="25" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
+      <c r="E25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4" t="s">
+      <c r="H25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="16" t="s">
         <v>9</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="16" t="s">
         <v>44</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="O25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="S25" s="4" t="s">
+      <c r="S25" s="16" t="s">
         <v>11</v>
       </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="4" t="s">
+      <c r="V25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y25" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB25" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AC25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD25" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="11"/>
     </row>
     <row r="26" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="E26" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="G26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="H26" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="J26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="26" t="s">
-        <v>82</v>
-      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
       <c r="M26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
+      <c r="N26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="P26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
+      <c r="Q26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="R26" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="S26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
       <c r="V26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="27" t="s">
+      <c r="W26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="X26" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y26" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26" t="s">
+      <c r="Z26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA26" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB26" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AC26" s="26"/>
+      <c r="AC26" s="24"/>
       <c r="AD26" s="15"/>
     </row>
     <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3011,79 +2995,79 @@
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>75</v>
+      <c r="F27" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>75</v>
+      <c r="H27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
       <c r="M27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N27" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O27" s="24" t="s">
-        <v>67</v>
+      <c r="N27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="P27" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q27" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="R27" s="24" t="s">
-        <v>67</v>
+      <c r="Q27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="S27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
       <c r="V27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="27" t="s">
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Z27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB27" s="26" t="s">
+      <c r="Z27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB27" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AC27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD27" s="4" t="s">
-        <v>72</v>
+      <c r="AC27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3091,21 +3075,29 @@
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="J28" s="16" t="s">
         <v>9</v>
       </c>
@@ -3114,20 +3106,20 @@
       <c r="M28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="O28" s="24" t="s">
-        <v>85</v>
+      <c r="N28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="P28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q28" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="R28" s="24" t="s">
-        <v>85</v>
+      <c r="Q28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="S28" s="16" t="s">
         <v>11</v>
@@ -3139,23 +3131,23 @@
       </c>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="27" t="s">
+      <c r="Y28" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AA28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB28" s="26" t="s">
+      <c r="AB28" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AC28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD28" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="AD28" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3163,12 +3155,12 @@
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="4"/>
@@ -3187,19 +3179,19 @@
         <v>44</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P29" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S29" s="16" t="s">
         <v>11</v>
@@ -3210,21 +3202,21 @@
         <v>45</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y29" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y29" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB29" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB29" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AC29" s="4"/>
@@ -3235,29 +3227,21 @@
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="16" t="s">
         <v>9</v>
       </c>
@@ -3267,19 +3251,19 @@
         <v>44</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P30" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="S30" s="16" t="s">
         <v>11</v>
@@ -3290,21 +3274,21 @@
         <v>45</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y30" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y30" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB30" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB30" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AC30" s="4"/>
@@ -3315,79 +3299,79 @@
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>87</v>
+      <c r="E31" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>87</v>
+      <c r="H31" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="J31" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="O31" s="26" t="s">
-        <v>72</v>
+      <c r="N31" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="P31" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q31" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="R31" s="26" t="s">
-        <v>72</v>
+      <c r="Q31" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="S31" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
       <c r="V31" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W31" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="X31" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y31" s="27" t="s">
+      <c r="W31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y31" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Z31" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA31" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB31" s="26" t="s">
+      <c r="Z31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB31" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AC31" s="26"/>
+      <c r="AC31" s="13"/>
       <c r="AD31" s="15"/>
     </row>
     <row r="32" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3395,28 +3379,28 @@
         <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>9</v>
@@ -3427,19 +3411,19 @@
         <v>44</v>
       </c>
       <c r="N32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="P32" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R32" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="S32" s="16" t="s">
         <v>11</v>
@@ -3449,78 +3433,78 @@
       <c r="V32" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="27" t="s">
+      <c r="W32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y32" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z32" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AA32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB32" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AC32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD32" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="9"/>
     </row>
     <row r="33" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J33" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="M33" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N33" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>79</v>
+      <c r="N33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="P33" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q33" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="R33" s="7" t="s">
-        <v>79</v>
-      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
       <c r="S33" s="16" t="s">
         <v>11</v>
       </c>
@@ -3529,47 +3513,55 @@
       <c r="V33" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="27" t="s">
+      <c r="W33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y33" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB33" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB33" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AC33" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD33" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="11"/>
     </row>
     <row r="34" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="G34" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="J34" s="16" t="s">
         <v>9</v>
       </c>
@@ -3578,21 +3570,13 @@
       <c r="M34" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
       <c r="S34" s="16" t="s">
         <v>11</v>
       </c>
@@ -3601,22 +3585,14 @@
       <c r="V34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y34" s="27" t="s">
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Z34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB34" s="26" t="s">
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AC34" s="4"/>
@@ -3627,44 +3603,52 @@
         <v>3</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="G35" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="H35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="J35" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="M35" s="16" t="s">
         <v>44</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="P35" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
       <c r="S35" s="16" t="s">
         <v>11</v>
       </c>
@@ -3674,21 +3658,21 @@
         <v>45</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y35" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y35" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB35" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB35" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AC35" s="4"/>
@@ -3699,28 +3683,28 @@
         <v>3</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J36" s="16" t="s">
         <v>9</v>
@@ -3731,174 +3715,174 @@
         <v>44</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="P36" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="S36" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
       <c r="V36" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="X36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y36" s="27" t="s">
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Z36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB36" s="26" t="s">
+      <c r="Z36" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA36" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB36" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="15"/>
+      <c r="AC36" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD36" s="13" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="37" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>70</v>
+      <c r="F37" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>70</v>
+      <c r="I37" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
       <c r="M37" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>94</v>
+      <c r="N37" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="P37" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R37" s="7" t="s">
-        <v>94</v>
+      <c r="Q37" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="S37" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
       <c r="V37" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="X37" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y37" s="27" t="s">
+      <c r="W37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y37" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Z37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA37" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB37" s="26" t="s">
+      <c r="Z37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB37" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="9"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="17"/>
     </row>
     <row r="38" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J38" s="16" t="s">
         <v>9</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M38" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>100</v>
+      <c r="N38" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="P38" s="16" t="s">
         <v>10</v>
@@ -3914,21 +3898,21 @@
         <v>45</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y38" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y38" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB38" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB38" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AC38" s="4"/>
@@ -3939,28 +3923,28 @@
         <v>3</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>9</v>
@@ -3987,12 +3971,12 @@
       </c>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
-      <c r="Y39" s="27" t="s">
+      <c r="Y39" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
-      <c r="AB39" s="26" t="s">
+      <c r="AB39" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AC39" s="4"/>
@@ -4003,28 +3987,28 @@
         <v>3</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>9</v>
@@ -4033,16 +4017,16 @@
         <v>98</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="M40" s="16" t="s">
         <v>44</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="P40" s="16" t="s">
         <v>10</v>
@@ -4058,21 +4042,21 @@
         <v>45</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y40" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y40" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB40" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AC40" s="4"/>
@@ -4083,28 +4067,28 @@
         <v>3</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="F41" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J41" s="16" t="s">
         <v>9</v>
@@ -4118,7 +4102,7 @@
         <v>98</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="P41" s="16" t="s">
         <v>10</v>
@@ -4127,7 +4111,7 @@
         <v>98</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="S41" s="16" t="s">
         <v>11</v>
@@ -4139,412 +4123,28 @@
       </c>
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
-      <c r="Y41" s="27" t="s">
+      <c r="Y41" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Z41" s="13" t="s">
         <v>98</v>
       </c>
       <c r="AA41" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB41" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB41" s="24" t="s">
         <v>13</v>
       </c>
       <c r="AC41" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AD41" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N42" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="R42" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="S42" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="X42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y42" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB42" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="17"/>
-    </row>
-    <row r="43" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M43" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N43" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="P43" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="X43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y43" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB43" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="11"/>
-    </row>
-    <row r="44" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="11"/>
-    </row>
-    <row r="45" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M45" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="P45" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="X45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y45" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z45" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB45" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="11"/>
-    </row>
-    <row r="46" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="P46" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="R46" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="S46" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA46" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB46" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD46" s="15" t="s">
-        <v>107</v>
+      <c r="AD41" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD46">
-    <sortCondition ref="B2:B46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD41">
+    <sortCondition ref="B2:B41"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
